--- a/data/trans_dic/P32A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Habitat-trans_dic.xlsx
@@ -708,20 +708,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003893008719641193</v>
+        <v>0.002423391107137405</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.006267624715009875</v>
+        <v>0.006501736831958107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007337568104461319</v>
+        <v>0.00553005115693192</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006049561014554518</v>
+        <v>0.006171825134999102</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.006764934884684926</v>
+        <v>0.006625015723587816</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001731486926991029</v>
+        <v>0.001713951187304579</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008656818188354645</v>
+        <v>0.009577130997779217</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.00687613017630407</v>
+        <v>0.007096080103422688</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.005730822592206538</v>
+        <v>0.006063499727110878</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0277275028541792</v>
+        <v>0.02548665946442017</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03006590450539767</v>
+        <v>0.02974877563726009</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03406889493433692</v>
+        <v>0.03238277162680733</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03056704969991716</v>
+        <v>0.03139829662777242</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.06118427436466507</v>
+        <v>0.05488046130981626</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04335736779293133</v>
+        <v>0.04432837619318255</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02669667754640713</v>
+        <v>0.02819074785517427</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01988315714239398</v>
+        <v>0.02022658450285202</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02948708181118437</v>
+        <v>0.02969063430199231</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02741043133283321</v>
+        <v>0.02915224000776395</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02359171726769026</v>
+        <v>0.0241524952611688</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.00937647970242006</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.02877106378388894</v>
+        <v>0.02877106378388893</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.005804757982783851</v>
@@ -840,38 +840,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003259095781724247</v>
+        <v>0.003233692217584417</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009282964874396882</v>
+        <v>0.008624903302250875</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0171778533543944</v>
+        <v>0.01819190495278893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007724904247063053</v>
+        <v>0.007333167514978704</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002900112711914613</v>
+        <v>0.002917142269132325</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01351157843082795</v>
+        <v>0.01150431782388638</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002177546455790303</v>
+        <v>0.002298514715354574</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.007170696676536531</v>
+        <v>0.007207764493596845</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01320592820667082</v>
+        <v>0.01408600421668024</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01179977265349322</v>
+        <v>0.01197935524815246</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01854007598295234</v>
+        <v>0.01924750793500616</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03828857680838571</v>
+        <v>0.03963915873276239</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04720059367269416</v>
+        <v>0.04583245323693395</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02782446202346953</v>
+        <v>0.0298050836678561</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.017359374725311</v>
+        <v>0.02248365513237523</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02546558292801706</v>
+        <v>0.02597386438497773</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05691644322115296</v>
+        <v>0.05878643316298372</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01267374273448695</v>
+        <v>0.01414975142314544</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02935154674491619</v>
+        <v>0.02796039658868646</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03329264291239322</v>
+        <v>0.03509180980589378</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03039381273677192</v>
+        <v>0.03069329527727586</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0.01992595576774841</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01723190138825254</v>
+        <v>0.01723190138825253</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.007086278670778249</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01113839232253167</v>
+        <v>0.0104933568351623</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02041256379476853</v>
+        <v>0.01832314893617617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007818325916148682</v>
+        <v>0.009272172871128789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005965323229815453</v>
+        <v>0.007527304239646268</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01147385595922256</v>
+        <v>0.01130573427636827</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.008458486958033471</v>
+        <v>0.008549546441040291</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01395920428351038</v>
+        <v>0.01319244514824197</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.006622124409768405</v>
+        <v>0.00772701663717654</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01155896907759172</v>
+        <v>0.01175471062852141</v>
       </c>
     </row>
     <row r="12">
@@ -1014,38 +1014,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04454378106326029</v>
+        <v>0.04605784592075464</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06016471747237446</v>
+        <v>0.0592171885108588</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03739025161229197</v>
+        <v>0.03598433764886885</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03633552799201847</v>
+        <v>0.04137111320244928</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03567429552714259</v>
+        <v>0.03577864253781579</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.02102031134991019</v>
+        <v>0.02088319346612927</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08376151415265344</v>
+        <v>0.07731030900087688</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0332095207988047</v>
+        <v>0.03323882258648399</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04019893740012861</v>
+        <v>0.04255885346295223</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02710334084895757</v>
+        <v>0.02706013050804831</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04395322317376349</v>
+        <v>0.0385686146103339</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.01756669718693585</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02167547730145429</v>
+        <v>0.02167547730145428</v>
       </c>
     </row>
     <row r="14">
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001600155333353931</v>
+        <v>0.001591577764586112</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01831626096786088</v>
+        <v>0.01957859713994948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005695429664965013</v>
+        <v>0.005591248693218031</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01378557495080273</v>
+        <v>0.0133305973438076</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002438302231462736</v>
+        <v>0.002460063386325242</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01048249279595578</v>
+        <v>0.0103326524733287</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006830760144905329</v>
+        <v>0.006718873259773006</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.002083173152843782</v>
+        <v>0.002077262907864881</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01458058551509321</v>
+        <v>0.01425410182786973</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01060737278167416</v>
+        <v>0.01002834237100708</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01328283236511001</v>
+        <v>0.01304634016211107</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01322290702426571</v>
+        <v>0.01490613836761099</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04681976399741633</v>
+        <v>0.04654170524981994</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02542120820374601</v>
+        <v>0.02636903273987015</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0401636738291784</v>
+        <v>0.03897525997794554</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02017912324036148</v>
+        <v>0.02251726668981709</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02897681443985517</v>
+        <v>0.03309641796959393</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04421928520021297</v>
+        <v>0.04526448691999998</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04580165243972614</v>
+        <v>0.04629717693140026</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01277290640123174</v>
+        <v>0.01334413592235209</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03516007695290142</v>
+        <v>0.03523134171583831</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02735758432854959</v>
+        <v>0.02832818372323071</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03383900355625906</v>
+        <v>0.03408360645937645</v>
       </c>
     </row>
     <row r="16">
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006553849995549054</v>
+        <v>0.006994169884733087</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01814867028367212</v>
+        <v>0.01870920448803541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01440299018189199</v>
+        <v>0.01388254730379938</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0129575261908821</v>
+        <v>0.01310594502918397</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.001031926920405972</v>
+        <v>0.0003932406261777745</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.00378960129705333</v>
+        <v>0.0039753201607172</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.007380111584790931</v>
+        <v>0.007565173891796469</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01305299500146801</v>
+        <v>0.012725000987786</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00534995931607798</v>
+        <v>0.005481135541557372</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01501451755682503</v>
+        <v>0.0149960137151997</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01342338800477017</v>
+        <v>0.01351940162931248</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01462620364488456</v>
+        <v>0.01460905786503916</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01605121709184693</v>
+        <v>0.01666670361010787</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03381922781528899</v>
+        <v>0.03338733225922886</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02673361592792014</v>
+        <v>0.02720169174189093</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02549346045865339</v>
+        <v>0.02524922090805205</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.009080710637896481</v>
+        <v>0.009046118031454085</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01712486952277045</v>
+        <v>0.01705469296001155</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02268570669374467</v>
+        <v>0.02225593362223846</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03483249737062398</v>
+        <v>0.03487899208158756</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01237587289231625</v>
+        <v>0.01255567199229491</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02559755530060259</v>
+        <v>0.0256594154309164</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02272798605609453</v>
+        <v>0.02328616081257612</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02507357394948062</v>
+        <v>0.02553641941051289</v>
       </c>
     </row>
     <row r="19">
@@ -1588,20 +1588,20 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1710</v>
+        <v>1065</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2670</v>
+        <v>2770</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3153</v>
+        <v>2376</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2136</v>
+        <v>2180</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>1187</v>
+        <v>1162</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5207</v>
+        <v>5760</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4231</v>
+        <v>4366</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3016</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="7">
@@ -1630,38 +1630,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12181</v>
+        <v>11197</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12809</v>
+        <v>12674</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14640</v>
+        <v>13916</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10795</v>
+        <v>11088</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>10731</v>
+        <v>9626</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8044</v>
+        <v>8224</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4621</v>
+        <v>4879</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>12306</v>
+        <v>12518</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>17735</v>
+        <v>17857</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16864</v>
+        <v>17936</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>12415</v>
+        <v>12710</v>
       </c>
     </row>
     <row r="8">
@@ -1764,38 +1764,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1896</v>
+        <v>1882</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5501</v>
+        <v>5111</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9870</v>
+        <v>10452</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3868</v>
+        <v>3672</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3016</v>
+        <v>2568</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1874</v>
+        <v>1978</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>6375</v>
+        <v>6408</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11856</v>
+        <v>12647</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8542</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="11">
@@ -1806,38 +1806,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10788</v>
+        <v>11200</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22688</v>
+        <v>23489</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27119</v>
+        <v>26333</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13932</v>
+        <v>14924</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>5146</v>
+        <v>6666</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8232</v>
+        <v>8396</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12703</v>
+        <v>13121</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>10905</v>
+        <v>12175</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>26094</v>
+        <v>24857</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29891</v>
+        <v>31506</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>22003</v>
+        <v>22219</v>
       </c>
     </row>
     <row r="12">
@@ -1940,16 +1940,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3687</v>
+        <v>3474</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9382</v>
+        <v>8422</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3314</v>
+        <v>3930</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2117</v>
+        <v>2671</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1959,19 +1959,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2221</v>
+        <v>2189</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3903</v>
+        <v>3945</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9316</v>
+        <v>8804</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4328</v>
+        <v>5050</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6340</v>
+        <v>6447</v>
       </c>
     </row>
     <row r="15">
@@ -1982,38 +1982,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14746</v>
+        <v>15247</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27653</v>
+        <v>27218</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15850</v>
+        <v>15254</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12896</v>
+        <v>14683</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4650</v>
+        <v>4664</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4828</v>
+        <v>4796</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16215</v>
+        <v>14966</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>15322</v>
+        <v>15336</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26828</v>
+        <v>28403</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>17714</v>
+        <v>17686</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>24108</v>
+        <v>21154</v>
       </c>
     </row>
     <row r="16">
@@ -2116,40 +2116,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10205</v>
+        <v>10908</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3264</v>
+        <v>3205</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6404</v>
+        <v>6192</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4265</v>
+        <v>4204</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2103</v>
+        <v>2068</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>13443</v>
+        <v>13142</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10396</v>
+        <v>9828</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>10259</v>
+        <v>10077</v>
       </c>
     </row>
     <row r="19">
@@ -2160,40 +2160,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6990</v>
+        <v>7880</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26086</v>
+        <v>25931</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14571</v>
+        <v>15114</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18657</v>
+        <v>18105</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6156</v>
+        <v>6869</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10572</v>
+        <v>12075</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17991</v>
+        <v>18416</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14100</v>
+        <v>14252</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>10649</v>
+        <v>11125</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>32417</v>
+        <v>32483</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>26811</v>
+        <v>27763</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>26136</v>
+        <v>26325</v>
       </c>
     </row>
     <row r="20">
@@ -2296,40 +2296,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12327</v>
+        <v>13155</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>36939</v>
+        <v>38080</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>28826</v>
+        <v>27784</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>21682</v>
+        <v>21930</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>922</v>
+        <v>351</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3958</v>
+        <v>4152</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>8453</v>
+        <v>8664</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>11718</v>
+        <v>11423</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>14843</v>
+        <v>15207</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>46242</v>
+        <v>46185</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>42239</v>
+        <v>42541</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>37604</v>
+        <v>37560</v>
       </c>
     </row>
     <row r="23">
@@ -2340,40 +2340,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30191</v>
+        <v>31348</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>68835</v>
+        <v>67956</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>53504</v>
+        <v>54440</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>42658</v>
+        <v>42250</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8114</v>
+        <v>8083</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>17886</v>
+        <v>17813</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25982</v>
+        <v>25490</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>31269</v>
+        <v>31311</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>34336</v>
+        <v>34834</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>78836</v>
+        <v>79027</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>71518</v>
+        <v>73274</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>64464</v>
+        <v>65654</v>
       </c>
     </row>
     <row r="24">
